--- a/output/class_timetables.xlsx
+++ b/output/class_timetables.xlsx
@@ -492,10 +492,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C5" t="str">
-        <v>Free</v>
+        <v>Reading</v>
       </c>
       <c r="D5" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E5" t="str">
         <v>R101</v>
@@ -512,7 +512,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C6" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D6" t="str">
         <v>Free</v>
@@ -521,7 +521,7 @@
         <v>R101</v>
       </c>
       <c r="F6" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="7">
@@ -532,10 +532,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C7" t="str">
-        <v>Free</v>
+        <v>Clubs</v>
       </c>
       <c r="D7" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E7" t="str">
         <v>R101</v>
@@ -552,10 +552,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C8" t="str">
-        <v>Free</v>
+        <v>Sports</v>
       </c>
       <c r="D8" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E8" t="str">
         <v>R101</v>
@@ -632,10 +632,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C13" t="str">
-        <v>Free</v>
+        <v>Library</v>
       </c>
       <c r="D13" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E13" t="str">
         <v>R101</v>
@@ -652,7 +652,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C14" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D14" t="str">
         <v>Free</v>
@@ -661,7 +661,7 @@
         <v>R101</v>
       </c>
       <c r="F14" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="15">
@@ -672,10 +672,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C15" t="str">
-        <v>Free</v>
+        <v>Mentorship</v>
       </c>
       <c r="D15" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E15" t="str">
         <v>R101</v>
@@ -692,10 +692,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C16" t="str">
-        <v>Free</v>
+        <v>Reading</v>
       </c>
       <c r="D16" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E16" t="str">
         <v>R101</v>
@@ -772,10 +772,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C21" t="str">
-        <v>Free</v>
+        <v>Clubs</v>
       </c>
       <c r="D21" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E21" t="str">
         <v>R101</v>
@@ -792,7 +792,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C22" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D22" t="str">
         <v>Free</v>
@@ -801,7 +801,7 @@
         <v>R101</v>
       </c>
       <c r="F22" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="23">
@@ -812,10 +812,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C23" t="str">
-        <v>Free</v>
+        <v>Sports</v>
       </c>
       <c r="D23" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E23" t="str">
         <v>R101</v>
@@ -832,10 +832,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C24" t="str">
-        <v>Free</v>
+        <v>Library</v>
       </c>
       <c r="D24" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E24" t="str">
         <v>R101</v>
@@ -912,10 +912,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C29" t="str">
-        <v>Free</v>
+        <v>Mentorship</v>
       </c>
       <c r="D29" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E29" t="str">
         <v>R101</v>
@@ -932,7 +932,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C30" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D30" t="str">
         <v>Free</v>
@@ -941,7 +941,7 @@
         <v>R101</v>
       </c>
       <c r="F30" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="31">
@@ -952,10 +952,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C31" t="str">
-        <v>Free</v>
+        <v>Reading</v>
       </c>
       <c r="D31" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E31" t="str">
         <v>R101</v>
@@ -972,10 +972,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C32" t="str">
-        <v>Free</v>
+        <v>Clubs</v>
       </c>
       <c r="D32" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E32" t="str">
         <v>R101</v>
@@ -1052,10 +1052,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C37" t="str">
-        <v>Free</v>
+        <v>Sports</v>
       </c>
       <c r="D37" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E37" t="str">
         <v>R101</v>
@@ -1072,7 +1072,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C38" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D38" t="str">
         <v>Free</v>
@@ -1081,7 +1081,7 @@
         <v>R101</v>
       </c>
       <c r="F38" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="39">
@@ -1092,10 +1092,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C39" t="str">
-        <v>Free</v>
+        <v>Library</v>
       </c>
       <c r="D39" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E39" t="str">
         <v>R101</v>
@@ -1112,10 +1112,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C40" t="str">
-        <v>Free</v>
+        <v>Mentorship</v>
       </c>
       <c r="D40" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E40" t="str">
         <v>R101</v>
@@ -1246,7 +1246,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C6" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D6" t="str">
         <v>Free</v>
@@ -1255,7 +1255,7 @@
         <v>R102</v>
       </c>
       <c r="F6" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="7">
@@ -1266,10 +1266,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C7" t="str">
-        <v>Free</v>
+        <v>Reading</v>
       </c>
       <c r="D7" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E7" t="str">
         <v>R102</v>
@@ -1286,10 +1286,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C8" t="str">
-        <v>Free</v>
+        <v>Clubs</v>
       </c>
       <c r="D8" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E8" t="str">
         <v>R102</v>
@@ -1386,7 +1386,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C14" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D14" t="str">
         <v>Free</v>
@@ -1395,7 +1395,7 @@
         <v>R102</v>
       </c>
       <c r="F14" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C15" t="str">
-        <v>Free</v>
+        <v>Sports</v>
       </c>
       <c r="D15" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E15" t="str">
         <v>R102</v>
@@ -1426,10 +1426,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C16" t="str">
-        <v>Free</v>
+        <v>Library</v>
       </c>
       <c r="D16" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E16" t="str">
         <v>R102</v>
@@ -1526,7 +1526,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C22" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D22" t="str">
         <v>Free</v>
@@ -1535,7 +1535,7 @@
         <v>R102</v>
       </c>
       <c r="F22" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="23">
@@ -1546,10 +1546,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C23" t="str">
-        <v>Free</v>
+        <v>Mentorship</v>
       </c>
       <c r="D23" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E23" t="str">
         <v>R102</v>
@@ -1566,10 +1566,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C24" t="str">
-        <v>Free</v>
+        <v>Reading</v>
       </c>
       <c r="D24" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E24" t="str">
         <v>R102</v>
@@ -1666,7 +1666,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C30" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D30" t="str">
         <v>Free</v>
@@ -1675,7 +1675,7 @@
         <v>R102</v>
       </c>
       <c r="F30" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="31">
@@ -1686,10 +1686,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C31" t="str">
-        <v>Free</v>
+        <v>Clubs</v>
       </c>
       <c r="D31" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E31" t="str">
         <v>R102</v>
@@ -1706,10 +1706,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C32" t="str">
-        <v>Free</v>
+        <v>Sports</v>
       </c>
       <c r="D32" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E32" t="str">
         <v>R102</v>
@@ -1806,7 +1806,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C38" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D38" t="str">
         <v>Free</v>
@@ -1815,7 +1815,7 @@
         <v>R102</v>
       </c>
       <c r="F38" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="39">
@@ -1826,10 +1826,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C39" t="str">
-        <v>Free</v>
+        <v>Library</v>
       </c>
       <c r="D39" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E39" t="str">
         <v>R102</v>
@@ -1846,10 +1846,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C40" t="str">
-        <v>Free</v>
+        <v>Mentorship</v>
       </c>
       <c r="D40" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E40" t="str">
         <v>R102</v>
@@ -1960,10 +1960,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C5" t="str">
-        <v>Free</v>
+        <v>Reading</v>
       </c>
       <c r="D5" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E5" t="str">
         <v>R103</v>
@@ -1980,7 +1980,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C6" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D6" t="str">
         <v>Free</v>
@@ -1989,7 +1989,7 @@
         <v>R103</v>
       </c>
       <c r="F6" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="7">
@@ -2000,10 +2000,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C7" t="str">
-        <v>Free</v>
+        <v>Clubs</v>
       </c>
       <c r="D7" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E7" t="str">
         <v>R103</v>
@@ -2020,10 +2020,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C8" t="str">
-        <v>Free</v>
+        <v>Sports</v>
       </c>
       <c r="D8" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E8" t="str">
         <v>R103</v>
@@ -2100,10 +2100,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C13" t="str">
-        <v>Free</v>
+        <v>Library</v>
       </c>
       <c r="D13" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E13" t="str">
         <v>R103</v>
@@ -2120,7 +2120,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C14" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D14" t="str">
         <v>Free</v>
@@ -2129,7 +2129,7 @@
         <v>R103</v>
       </c>
       <c r="F14" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="15">
@@ -2140,10 +2140,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C15" t="str">
-        <v>Free</v>
+        <v>Mentorship</v>
       </c>
       <c r="D15" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E15" t="str">
         <v>R103</v>
@@ -2160,10 +2160,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C16" t="str">
-        <v>Free</v>
+        <v>Reading</v>
       </c>
       <c r="D16" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E16" t="str">
         <v>R103</v>
@@ -2240,10 +2240,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C21" t="str">
-        <v>Free</v>
+        <v>Clubs</v>
       </c>
       <c r="D21" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E21" t="str">
         <v>R103</v>
@@ -2260,7 +2260,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C22" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D22" t="str">
         <v>Free</v>
@@ -2269,7 +2269,7 @@
         <v>R103</v>
       </c>
       <c r="F22" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="23">
@@ -2280,10 +2280,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C23" t="str">
-        <v>Free</v>
+        <v>Sports</v>
       </c>
       <c r="D23" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E23" t="str">
         <v>R103</v>
@@ -2300,10 +2300,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C24" t="str">
-        <v>Free</v>
+        <v>Library</v>
       </c>
       <c r="D24" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E24" t="str">
         <v>R103</v>
@@ -2380,10 +2380,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C29" t="str">
-        <v>Free</v>
+        <v>Mentorship</v>
       </c>
       <c r="D29" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E29" t="str">
         <v>R103</v>
@@ -2400,7 +2400,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C30" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D30" t="str">
         <v>Free</v>
@@ -2409,7 +2409,7 @@
         <v>R103</v>
       </c>
       <c r="F30" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="31">
@@ -2420,10 +2420,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C31" t="str">
-        <v>Free</v>
+        <v>Reading</v>
       </c>
       <c r="D31" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E31" t="str">
         <v>R103</v>
@@ -2440,10 +2440,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C32" t="str">
-        <v>Free</v>
+        <v>Clubs</v>
       </c>
       <c r="D32" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E32" t="str">
         <v>R103</v>
@@ -2520,10 +2520,10 @@
         <v>11:00 - 12:00</v>
       </c>
       <c r="C37" t="str">
-        <v>Free</v>
+        <v>Sports</v>
       </c>
       <c r="D37" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E37" t="str">
         <v>R103</v>
@@ -2540,7 +2540,7 @@
         <v>12:00 - 13:00</v>
       </c>
       <c r="C38" t="str">
-        <v>Free</v>
+        <v>Lunch Break</v>
       </c>
       <c r="D38" t="str">
         <v>Free</v>
@@ -2549,7 +2549,7 @@
         <v>R103</v>
       </c>
       <c r="F38" t="str">
-        <v>Regular Class</v>
+        <v>Special Period</v>
       </c>
     </row>
     <row r="39">
@@ -2560,10 +2560,10 @@
         <v>13:00 - 14:00</v>
       </c>
       <c r="C39" t="str">
-        <v>Free</v>
+        <v>Library</v>
       </c>
       <c r="D39" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E39" t="str">
         <v>R103</v>
@@ -2580,10 +2580,10 @@
         <v>14:00 - 15:00</v>
       </c>
       <c r="C40" t="str">
-        <v>Free</v>
+        <v>Mentorship</v>
       </c>
       <c r="D40" t="str">
-        <v>Free</v>
+        <v>Activity</v>
       </c>
       <c r="E40" t="str">
         <v>R103</v>
